--- a/biology/Biochimie/Dynamine_(protéine)/Dynamine_(protéine).xlsx
+++ b/biology/Biochimie/Dynamine_(protéine)/Dynamine_(protéine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dynamine_(prot%C3%A9ine)</t>
+          <t>Dynamine_(protéine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dynamine est une famille de protéines cytoplasmiques associée aux clathrines et impliquée dans la formation de ces vésicules lors de l'endocytose. Elle est capable de se polymériser sous forme d'hélice lorsqu'elle est liée au GTP.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dynamine_(prot%C3%A9ine)</t>
+          <t>Dynamine_(protéine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une protéine d'environ 100 KDa. Les mammifères ont trois gènes, DNM1, DNM2 et DNM3 (codant les dynamines 1, 2 et 3), avec à chaque fois, plusieurs types d'épissage[1].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une protéine d'environ 100 KDa. Les mammifères ont trois gènes, DNM1, DNM2 et DNM3 (codant les dynamines 1, 2 et 3), avec à chaque fois, plusieurs types d'épissage.  
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dynamine_(prot%C3%A9ine)</t>
+          <t>Dynamine_(protéine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle intervient dans l'organisation des microtubules[2]. Elle a une activité de GTPase[3] et facilite la formation de vésicule à partir d'une membrane lipidique[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle intervient dans l'organisation des microtubules. Elle a une activité de GTPase et facilite la formation de vésicule à partir d'une membrane lipidique.
 Lors de l'endocytose médiée par des récepteurs spécifiques, il peut se former deux types principaux de vésicules : les unes recouvertes de cavéoline, les autres de clathrines. La dynamine est requise pour la formation de ces dernières.
 Lorsque les clathrines reconnaissent et fixent un récepteur au niveau de la membrane plasmique, elles recrutent (à ce niveau) des molécules de dynamine-GTP. Celles-ci se polymérisent, formant dans un premier temps un anneau entre la vésicule en formation et la membrane plasmique (MP); cet anneau entoure le "pied" de MP par lequel est encore accrochée la vésicule, jusqu'à la formation complète de la vésicule.
 L'hydrolyse du GTP conduit au changement conformationnel de l'anneau, amenant à la fission du manteau de clathrine, de l'anneau lui-même et au relargage de la vésicule dans le cytoplasme.
